--- a/SceneServer/tools/Xlsx/kx_buff.xlsx
+++ b/SceneServer/tools/Xlsx/kx_buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <t>idx</t>
   </si>
   <si>
+    <t>#des</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -40,9 +43,6 @@
     <t>is_icon</t>
   </si>
   <si>
-    <t>#des</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -55,6 +55,9 @@
     <t>序号</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>buff名字</t>
   </si>
   <si>
@@ -76,73 +79,70 @@
     <t>是否有图标</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>移动速度卷轴</t>
   </si>
   <si>
     <t>SpeedScroll</t>
   </si>
   <si>
-    <t>移动速度卷轴</t>
+    <t>攻击速度卷轴</t>
   </si>
   <si>
     <t>FastScroll</t>
   </si>
   <si>
-    <t>攻击速度卷轴</t>
+    <t>热情</t>
   </si>
   <si>
     <t>Warm</t>
   </si>
   <si>
-    <t>热情</t>
+    <t>热情光环</t>
   </si>
   <si>
     <t>FireWarm</t>
   </si>
   <si>
-    <t>热情光环</t>
+    <t>心灵之火</t>
   </si>
   <si>
     <t>WarmOther</t>
   </si>
   <si>
-    <t>心灵之火</t>
+    <t>魔法屏障</t>
   </si>
   <si>
     <t>ManaBarrier</t>
   </si>
   <si>
-    <t>魔法屏障</t>
+    <t>大地之斩</t>
   </si>
   <si>
     <t>BlastBlade</t>
   </si>
   <si>
-    <t>大地之斩</t>
+    <t>彗星剑</t>
   </si>
   <si>
     <t>RainbowArrow</t>
   </si>
   <si>
-    <t>彗星剑</t>
+    <t>天神下凡</t>
   </si>
   <si>
     <t>Bare</t>
   </si>
   <si>
-    <t>天神下凡</t>
+    <t>暴风雪</t>
   </si>
   <si>
     <t>Blizzard</t>
   </si>
   <si>
-    <t>暴风雪</t>
+    <t>鹰眼</t>
   </si>
   <si>
     <t>HawkEye</t>
-  </si>
-  <si>
-    <t>鹰眼</t>
   </si>
 </sst>
 </file>
@@ -1086,16 +1086,16 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="8" width="13.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="9" width="13.125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1136,25 +1136,25 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1204,11 +1204,11 @@
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1233,11 +1233,11 @@
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1262,11 +1262,11 @@
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1291,11 +1291,11 @@
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1320,11 +1320,11 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1349,8 +1349,8 @@
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1378,26 +1378,26 @@
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>500</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
       <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>34</v>
+      <c r="I11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1407,26 +1407,26 @@
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>500</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
       <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <v>5</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>36</v>
+      <c r="I12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1436,26 +1436,26 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>500</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
       <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>38</v>
+      <c r="I13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1465,26 +1465,26 @@
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>800</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
       <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
         <v>5</v>
       </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>40</v>
+      <c r="I14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1494,8 +1494,8 @@
       <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1512,8 +1512,8 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>42</v>
+      <c r="I15" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SceneServer/tools/Xlsx/kx_buff.xlsx
+++ b/SceneServer/tools/Xlsx/kx_buff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
   <si>
     <t>idx</t>
   </si>
@@ -31,6 +31,9 @@
     <t>is_trigger</t>
   </si>
   <si>
+    <t>group</t>
+  </si>
+  <si>
     <t>interval</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>是否循环触发</t>
   </si>
   <si>
+    <t>buff分组</t>
+  </si>
+  <si>
     <t>循环触发间隔</t>
   </si>
   <si>
@@ -91,6 +97,54 @@
     <t>FastScroll</t>
   </si>
   <si>
+    <t>大地之斩</t>
+  </si>
+  <si>
+    <t>BlastBlade</t>
+  </si>
+  <si>
+    <t>彗星剑</t>
+  </si>
+  <si>
+    <t>RainbowArrow</t>
+  </si>
+  <si>
+    <t>天神下凡</t>
+  </si>
+  <si>
+    <t>Bare</t>
+  </si>
+  <si>
+    <t>魔法屏障</t>
+  </si>
+  <si>
+    <t>ManaBarrier</t>
+  </si>
+  <si>
+    <t>暴风雪</t>
+  </si>
+  <si>
+    <t>Blizzard</t>
+  </si>
+  <si>
+    <t>流星雨</t>
+  </si>
+  <si>
+    <t>MeteoricShower</t>
+  </si>
+  <si>
+    <t>火雨</t>
+  </si>
+  <si>
+    <t>FireRain</t>
+  </si>
+  <si>
+    <t>鹰眼</t>
+  </si>
+  <si>
+    <t>HawkEye</t>
+  </si>
+  <si>
     <t>热情</t>
   </si>
   <si>
@@ -109,40 +163,208 @@
     <t>WarmOther</t>
   </si>
   <si>
-    <t>魔法屏障</t>
-  </si>
-  <si>
-    <t>ManaBarrier</t>
-  </si>
-  <si>
-    <t>大地之斩</t>
-  </si>
-  <si>
-    <t>BlastBlade</t>
-  </si>
-  <si>
-    <t>彗星剑</t>
-  </si>
-  <si>
-    <t>RainbowArrow</t>
-  </si>
-  <si>
-    <t>天神下凡</t>
-  </si>
-  <si>
-    <t>Bare</t>
-  </si>
-  <si>
-    <t>暴风雪</t>
-  </si>
-  <si>
-    <t>Blizzard</t>
-  </si>
-  <si>
-    <t>鹰眼</t>
-  </si>
-  <si>
-    <t>HawkEye</t>
+    <t>自然抵抗</t>
+  </si>
+  <si>
+    <t>ResistNature</t>
+  </si>
+  <si>
+    <t>疾风烈火</t>
+  </si>
+  <si>
+    <t>WindOfFire</t>
+  </si>
+  <si>
+    <t>冰神</t>
+  </si>
+  <si>
+    <t>Undine</t>
+  </si>
+  <si>
+    <t>风神</t>
+  </si>
+  <si>
+    <t>Sylph</t>
+  </si>
+  <si>
+    <t>火神</t>
+  </si>
+  <si>
+    <t>SpiritSalamander</t>
+  </si>
+  <si>
+    <t>大地神</t>
+  </si>
+  <si>
+    <t>Gnome</t>
+  </si>
+  <si>
+    <t>树神</t>
+  </si>
+  <si>
+    <t>Dryad</t>
+  </si>
+  <si>
+    <t>蛇女</t>
+  </si>
+  <si>
+    <t>Naiad</t>
+  </si>
+  <si>
+    <t>蓝色妖姬</t>
+  </si>
+  <si>
+    <t>Nereid</t>
+  </si>
+  <si>
+    <t>幽灵公主</t>
+  </si>
+  <si>
+    <t>Oread</t>
+  </si>
+  <si>
+    <t>圣之召唤</t>
+  </si>
+  <si>
+    <t>Alseide</t>
+  </si>
+  <si>
+    <t>冰冻</t>
+  </si>
+  <si>
+    <t>ColdEnemy</t>
+  </si>
+  <si>
+    <t>冰风</t>
+  </si>
+  <si>
+    <t>WindOfIce</t>
+  </si>
+  <si>
+    <t>强化冰风</t>
+  </si>
+  <si>
+    <t>WaveOfIce</t>
+  </si>
+  <si>
+    <t>强化冰冻</t>
+  </si>
+  <si>
+    <t>FrostEnemy</t>
+  </si>
+  <si>
+    <t>火焰抵抗</t>
+  </si>
+  <si>
+    <t>ResistFire</t>
+  </si>
+  <si>
+    <t>超级强化</t>
+  </si>
+  <si>
+    <t>UltraEndure</t>
+  </si>
+  <si>
+    <t>绝对防御</t>
+  </si>
+  <si>
+    <t>AbsoluteDefense</t>
+  </si>
+  <si>
+    <t>战嚎</t>
+  </si>
+  <si>
+    <t>BattleCry</t>
+  </si>
+  <si>
+    <t>神速</t>
+  </si>
+  <si>
+    <t>GodSpeed</t>
+  </si>
+  <si>
+    <t>狂暴光环</t>
+  </si>
+  <si>
+    <t>AuraOfFury</t>
+  </si>
+  <si>
+    <t>蓄魔</t>
+  </si>
+  <si>
+    <t>ManaSaver</t>
+  </si>
+  <si>
+    <t>封魔</t>
+  </si>
+  <si>
+    <t>ManaRebirth</t>
+  </si>
+  <si>
+    <t>触不可及</t>
+  </si>
+  <si>
+    <t>Untouchable</t>
+  </si>
+  <si>
+    <t>暴动强化</t>
+  </si>
+  <si>
+    <t>Riot</t>
+  </si>
+  <si>
+    <t>不净根除</t>
+  </si>
+  <si>
+    <t>Eradication</t>
+  </si>
+  <si>
+    <t>守卫之盾</t>
+  </si>
+  <si>
+    <t>GuardianShield</t>
+  </si>
+  <si>
+    <t>毁灭之剑</t>
+  </si>
+  <si>
+    <t>CrashSword</t>
+  </si>
+  <si>
+    <t>华丽收尾</t>
+  </si>
+  <si>
+    <t>DynamicFinish</t>
+  </si>
+  <si>
+    <t>成长</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>狩猎之技</t>
+  </si>
+  <si>
+    <t>Devastator</t>
+  </si>
+  <si>
+    <t>盾牌反射</t>
+  </si>
+  <si>
+    <t>ShieldReflection</t>
+  </si>
+  <si>
+    <t>乾坤大挪移</t>
+  </si>
+  <si>
+    <t>Acrobatic</t>
+  </si>
+  <si>
+    <t>变身技能</t>
+  </si>
+  <si>
+    <t>Transformation</t>
   </si>
 </sst>
 </file>
@@ -756,13 +978,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1083,23 +1311,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="9" width="13.125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="5" max="10" width="13.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1343,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1127,37 +1355,43 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1167,45 +1401,49 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1214,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1223,18 +1461,21 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1243,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1252,268 +1493,1385 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>500</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>500</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>500</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>800</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>800</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>800</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2">
         <v>34</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>500</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2">
         <v>36</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>500</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>5</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2">
         <v>38</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>500</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2">
         <v>40</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>800</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2">
         <v>41</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2">
         <v>42</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
+      <c r="B46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SceneServer/tools/Xlsx/kx_buff.xlsx
+++ b/SceneServer/tools/Xlsx/kx_buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14460"/>
+    <workbookView windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,96 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Minghua Zhang(Porton)</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">请勿修改idx,只支持从表尾添加
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">如果buff有图标，buff名字必须与客户端匹配，否则会造成客户端崩溃
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">是否会被异态消除移除
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">多个buff共享一个位置，例如心灵之火与咆哮卷轴，两者只能存在一个！
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">buff是否可以叠加多个，暴风雪、流星雨等可以多次释放，叠加伤害
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">客户端是否支持Buff图标，如果填写错误，会导致客户端崩溃！
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="172">
   <si>
     <t>idx</t>
   </si>
@@ -25,12 +113,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>buff_name</t>
+  </si>
+  <si>
     <t>is_remove</t>
   </si>
   <si>
     <t>is_trigger</t>
   </si>
   <si>
+    <t>is_debuff</t>
+  </si>
+  <si>
     <t>group</t>
   </si>
   <si>
@@ -61,6 +155,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>关联的技能名字</t>
+  </si>
+  <si>
     <t>buff名字</t>
   </si>
   <si>
@@ -70,6 +167,9 @@
     <t>是否循环触发</t>
   </si>
   <si>
+    <t>是否负面buff</t>
+  </si>
+  <si>
     <t>buff分组</t>
   </si>
   <si>
@@ -112,7 +212,7 @@
     <t>天神下凡</t>
   </si>
   <si>
-    <t>Bare</t>
+    <t>BlastFist</t>
   </si>
   <si>
     <t>魔法屏障</t>
@@ -313,12 +413,18 @@
     <t>Riot</t>
   </si>
   <si>
+    <t>RiotFx</t>
+  </si>
+  <si>
     <t>不净根除</t>
   </si>
   <si>
     <t>Eradication</t>
   </si>
   <si>
+    <t>EradicationFx</t>
+  </si>
+  <si>
     <t>守卫之盾</t>
   </si>
   <si>
@@ -355,16 +461,163 @@
     <t>ShieldReflection</t>
   </si>
   <si>
+    <t>ShieldReflectionFx</t>
+  </si>
+  <si>
     <t>乾坤大挪移</t>
   </si>
   <si>
     <t>Acrobatic</t>
   </si>
   <si>
+    <t>AcrobaticFx</t>
+  </si>
+  <si>
     <t>变身技能</t>
   </si>
   <si>
     <t>Transformation</t>
+  </si>
+  <si>
+    <t>冰封术</t>
+  </si>
+  <si>
+    <t>WinterRestriction</t>
+  </si>
+  <si>
+    <t>冰封术_减速</t>
+  </si>
+  <si>
+    <t>WinterRestriction_Child</t>
+  </si>
+  <si>
+    <t>冰刺</t>
+  </si>
+  <si>
+    <t>IceStinger</t>
+  </si>
+  <si>
+    <t>水之冷却</t>
+  </si>
+  <si>
+    <t>WaterReduce</t>
+  </si>
+  <si>
+    <t>DecResistBlueFx</t>
+  </si>
+  <si>
+    <t>冻汽反射</t>
+  </si>
+  <si>
+    <t>ColdReflection</t>
+  </si>
+  <si>
+    <t>ColdReflectionFx</t>
+  </si>
+  <si>
+    <t>冻汽反射_减攻速</t>
+  </si>
+  <si>
+    <t>ColdReflection_Child</t>
+  </si>
+  <si>
+    <t>冻人</t>
+  </si>
+  <si>
+    <t>Freezing</t>
+  </si>
+  <si>
+    <t>致盲术</t>
+  </si>
+  <si>
+    <t>BlindMaker</t>
+  </si>
+  <si>
+    <t>毒箭术</t>
+  </si>
+  <si>
+    <t>PoisonArrow</t>
+  </si>
+  <si>
+    <t>束缚之箭</t>
+  </si>
+  <si>
+    <t>RestraintShot</t>
+  </si>
+  <si>
+    <t>STMBreak</t>
+  </si>
+  <si>
+    <t>狂暴</t>
+  </si>
+  <si>
+    <t>Demolition</t>
+  </si>
+  <si>
+    <t>DemolitionFx</t>
+  </si>
+  <si>
+    <t>死亡之触</t>
+  </si>
+  <si>
+    <t>DeathHand</t>
+  </si>
+  <si>
+    <t>狂暴光环_队友</t>
+  </si>
+  <si>
+    <t>AuraOfFury_Child</t>
+  </si>
+  <si>
+    <t>致命攻击</t>
+  </si>
+  <si>
+    <t>PatalBlow</t>
+  </si>
+  <si>
+    <t>PatalBlow_IO</t>
+  </si>
+  <si>
+    <t>沉默光环</t>
+  </si>
+  <si>
+    <t>SilenceAura</t>
+  </si>
+  <si>
+    <t>SilenceAura_Child</t>
+  </si>
+  <si>
+    <t>燃烧爆裂</t>
+  </si>
+  <si>
+    <t>BurnScald</t>
+  </si>
+  <si>
+    <t>DecResistRedFx</t>
+  </si>
+  <si>
+    <t>沉默之火</t>
+  </si>
+  <si>
+    <t>Silent</t>
+  </si>
+  <si>
+    <t>SilentFx</t>
+  </si>
+  <si>
+    <t>剑刃风暴</t>
+  </si>
+  <si>
+    <t>BladeStorm</t>
+  </si>
+  <si>
+    <t>BleedingFx</t>
+  </si>
+  <si>
+    <t>噩梦降临</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
   </si>
 </sst>
 </file>
@@ -377,7 +630,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +781,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -978,7 +1236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -991,6 +1249,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1311,23 +1572,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="10" width="13.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="12" width="13.125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1343,13 +1606,13 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1358,40 +1621,52 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1402,327 +1677,362 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
         <v>500</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>500</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
         <v>5</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
         <v>500</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
         <v>5</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
         <v>800</v>
       </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
         <v>800</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
         <v>3</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
         <v>800</v>
       </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
         <v>3</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
@@ -1731,1146 +2041,1999 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
         <v>2</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
         <v>3</v>
       </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
         <v>3</v>
       </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
         <v>3</v>
       </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
         <v>3</v>
       </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
         <v>3</v>
       </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
         <v>3</v>
       </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
         <v>3</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
       </c>
       <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
         <v>4</v>
       </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
       <c r="I29" s="2">
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
       </c>
       <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
         <v>5</v>
       </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
       </c>
       <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
         <v>5</v>
       </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
       <c r="I31" s="2">
         <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
       </c>
       <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
         <v>4</v>
       </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
       <c r="J32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="2">
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="2">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="2">
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="2">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="2">
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="2">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
       <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="2">
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="2">
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="2">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="2">
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="2">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="2">
         <v>0</v>
       </c>
       <c r="J40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="2">
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="2">
         <v>0</v>
       </c>
       <c r="J41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="2">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E42" s="2">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
       <c r="I42" s="2">
         <v>0</v>
       </c>
       <c r="J42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="2">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
       <c r="I43" s="2">
         <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="2">
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="2">
         <v>0</v>
       </c>
       <c r="J44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="2">
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
       <c r="I45" s="2">
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="2">
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
       <c r="I46" s="2">
         <v>0</v>
       </c>
       <c r="J46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="2">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="2">
         <v>0</v>
       </c>
       <c r="J47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="2">
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="E48" s="2">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
       <c r="I48" s="2">
         <v>0</v>
       </c>
       <c r="J48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="2">
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
       <c r="I49" s="2">
         <v>0</v>
       </c>
       <c r="J49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="2">
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E50" s="2">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
       <c r="I50" s="2">
         <v>0</v>
       </c>
       <c r="J50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="2">
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
       <c r="I51" s="2">
         <v>0</v>
       </c>
       <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>500</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
+        <v>4</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="2">
+        <v>60</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="2">
+        <v>61</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2878,5 +4041,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>